--- a/TeamData/Sprint1Backlog.xlsx
+++ b/TeamData/Sprint1Backlog.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Repos\overflow\TeamData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -49,9 +54,6 @@
     <t>As an admin, I am able to CRUD partners</t>
   </si>
   <si>
-    <t>Farah Hazem</t>
-  </si>
-  <si>
     <t>As an admin, I am able to CRUD life coaches</t>
   </si>
   <si>
@@ -107,6 +109,9 @@
   </si>
   <si>
     <t>Abdellatif Emara</t>
+  </si>
+  <si>
+    <t>Farah hazem</t>
   </si>
 </sst>
 </file>
@@ -174,6 +179,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -221,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,7 +476,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -533,10 +541,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -551,13 +559,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -572,13 +580,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -593,13 +601,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -614,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -626,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -635,13 +643,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -656,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -668,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -677,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -698,7 +706,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -710,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -719,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -731,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -740,13 +748,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -761,13 +769,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -779,7 +787,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15">
         <f>SUM(C2:C14)</f>
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
